--- a/data/trans_orig/CLASESOCIAL_Hogar_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D422F94-611F-4B2C-A6AA-7765C756A5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5882C93-4D00-4AF0-B2AD-41A1A6866C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49F7F4CE-7101-46D6-8BFB-20B931BB5F38}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D90BA7F-8EF9-4244-9A5E-89AA58D56834}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="606">
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2012 (Tasa respuesta: 79,71%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>0%</t>
@@ -103,1735 +103,1759 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>44,66%</t>
   </si>
   <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
   </si>
   <si>
     <t>35,22%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>41,01%</t>
   </si>
   <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2015 (Tasa respuesta: 80,51%)</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>48,28%</t>
   </si>
   <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>51,72%</t>
   </si>
   <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2015 (Tasa respuesta: 80,51%)</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>49,13%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>49,28%</t>
   </si>
   <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
 </sst>
 </file>
@@ -2243,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F888D98-7881-433E-A5FF-9EDACCC41EB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE40CFE-4777-42F3-8D18-8E656656CB73}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3018,7 +3042,7 @@
         <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -3027,13 +3051,13 @@
         <v>221797</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>458</v>
@@ -3042,13 +3066,13 @@
         <v>501937</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3087,13 @@
         <v>351040</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>300</v>
@@ -3078,13 +3102,13 @@
         <v>322916</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>633</v>
@@ -3093,13 +3117,13 @@
         <v>673956</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3179,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3173,7 +3197,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3188,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3203,7 +3227,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3242,13 @@
         <v>85819</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -3233,13 +3257,13 @@
         <v>47526</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -3248,13 +3272,13 @@
         <v>133345</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3293,13 @@
         <v>109556</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -3284,13 +3308,13 @@
         <v>99254</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -3299,13 +3323,13 @@
         <v>208810</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3385,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3379,7 +3403,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3394,7 +3418,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3409,7 +3433,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3448,13 @@
         <v>118443</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -3439,13 +3463,13 @@
         <v>58531</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>163</v>
@@ -3454,13 +3478,13 @@
         <v>176974</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3499,13 @@
         <v>132640</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>118</v>
@@ -3490,13 +3514,13 @@
         <v>122321</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>248</v>
@@ -3505,13 +3529,13 @@
         <v>254961</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3591,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3585,7 +3609,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3615,7 +3639,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3654,13 @@
         <v>296634</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
@@ -3645,13 +3669,13 @@
         <v>196204</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>454</v>
@@ -3660,13 +3684,13 @@
         <v>492838</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3705,13 @@
         <v>319052</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>254</v>
@@ -3696,13 +3720,13 @@
         <v>279848</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M30" s="7">
         <v>549</v>
@@ -3711,13 +3735,13 @@
         <v>598900</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3797,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3791,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3806,7 +3830,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3821,7 +3845,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3860,13 @@
         <v>356008</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="H33" s="7">
         <v>181</v>
@@ -3854,10 +3878,10 @@
         <v>25</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M33" s="7">
         <v>510</v>
@@ -3866,13 +3890,13 @@
         <v>559278</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3911,13 @@
         <v>355213</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H34" s="7">
         <v>345</v>
@@ -3905,10 +3929,10 @@
         <v>34</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M34" s="7">
         <v>665</v>
@@ -3917,13 +3941,13 @@
         <v>729128</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4015,13 @@
         <v>2010</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4012,7 +4036,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4021,13 +4045,13 @@
         <v>2010</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4066,13 @@
         <v>1485422</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H37" s="7">
         <v>832</v>
@@ -4057,13 +4081,13 @@
         <v>912595</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M37" s="7">
         <v>2202</v>
@@ -4072,13 +4096,13 @@
         <v>2398017</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4117,13 @@
         <v>1669605</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H38" s="7">
         <v>1414</v>
@@ -4108,13 +4132,13 @@
         <v>1528179</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M38" s="7">
         <v>2984</v>
@@ -4123,13 +4147,13 @@
         <v>3197785</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4209,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB02140F-5C0F-4878-80FF-9DAB2B08389F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23C41EA-F1F3-4006-97C8-C063B2B55AA8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4226,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4339,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4354,7 +4378,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4369,7 +4393,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4408,13 @@
         <v>105121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>66</v>
@@ -4399,13 +4423,13 @@
         <v>71079</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -4414,13 +4438,13 @@
         <v>176200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4459,13 @@
         <v>169008</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>158</v>
@@ -4450,13 +4474,13 @@
         <v>162577</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M6" s="7">
         <v>314</v>
@@ -4465,13 +4489,13 @@
         <v>331585</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4563,13 @@
         <v>1132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4554,13 +4578,13 @@
         <v>953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4569,13 +4593,13 @@
         <v>2085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4614,13 @@
         <v>170596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -4605,13 +4629,13 @@
         <v>90672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -4620,13 +4644,13 @@
         <v>261268</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4665,13 @@
         <v>280391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -4656,13 +4680,13 @@
         <v>186480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>440</v>
@@ -4671,13 +4695,13 @@
         <v>466871</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,7 +4775,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4766,7 +4790,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4781,7 +4805,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4820,13 @@
         <v>120309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4811,13 +4835,13 @@
         <v>89473</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -4826,13 +4850,13 @@
         <v>209782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4871,13 @@
         <v>172339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -4862,13 +4886,13 @@
         <v>162214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>344</v>
@@ -4877,13 +4901,13 @@
         <v>334553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +4981,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4972,7 +4996,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4987,7 +5011,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5026,13 @@
         <v>139080</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -5017,13 +5041,13 @@
         <v>86022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -5032,13 +5056,13 @@
         <v>225102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5077,13 @@
         <v>189607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
         <v>179</v>
@@ -5068,13 +5092,13 @@
         <v>189215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M18" s="7">
         <v>362</v>
@@ -5083,13 +5107,13 @@
         <v>378823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,7 +5169,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5163,7 +5187,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5178,7 +5202,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5193,7 +5217,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5232,13 @@
         <v>77603</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5223,13 +5247,13 @@
         <v>40019</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>118</v>
@@ -5238,13 +5262,13 @@
         <v>117622</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5283,13 @@
         <v>121672</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -5274,13 +5298,13 @@
         <v>124044</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>251</v>
@@ -5289,13 +5313,13 @@
         <v>245716</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5375,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5369,7 +5393,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5384,7 +5408,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5399,7 +5423,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5438,13 @@
         <v>96787</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -5429,13 +5453,13 @@
         <v>47155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -5444,13 +5468,13 @@
         <v>143942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5489,13 @@
         <v>139012</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>108</v>
@@ -5480,13 +5504,13 @@
         <v>109774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>246</v>
@@ -5495,13 +5519,13 @@
         <v>248786</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,7 +5581,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5569,13 +5593,13 @@
         <v>1125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5590,7 +5614,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -5599,13 +5623,13 @@
         <v>1125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5644,13 @@
         <v>271047</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>203</v>
@@ -5635,13 +5659,13 @@
         <v>214470</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>436</v>
@@ -5650,13 +5674,13 @@
         <v>485518</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5695,13 @@
         <v>325887</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H30" s="7">
         <v>258</v>
@@ -5686,13 +5710,13 @@
         <v>277136</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M30" s="7">
         <v>553</v>
@@ -5701,13 +5725,13 @@
         <v>603022</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +5787,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5781,7 +5805,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5796,7 +5820,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5811,7 +5835,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5850,13 @@
         <v>347690</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H33" s="7">
         <v>227</v>
@@ -5841,10 +5865,10 @@
         <v>246560</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>342</v>
@@ -5877,13 +5901,13 @@
         <v>372429</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H34" s="7">
         <v>328</v>
@@ -5892,13 +5916,13 @@
         <v>352680</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="M34" s="7">
         <v>687</v>
@@ -5907,13 +5931,13 @@
         <v>725109</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +6005,13 @@
         <v>2257</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>352</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -5996,13 +6020,13 @@
         <v>953</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6011,13 +6035,13 @@
         <v>3210</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6056,13 @@
         <v>1328233</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H37" s="7">
         <v>837</v>
@@ -6047,13 +6071,13 @@
         <v>885451</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M37" s="7">
         <v>2089</v>
@@ -6062,13 +6086,13 @@
         <v>2213684</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6107,13 @@
         <v>1770344</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H38" s="7">
         <v>1497</v>
@@ -6098,13 +6122,13 @@
         <v>1564120</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M38" s="7">
         <v>3197</v>
@@ -6113,13 +6137,13 @@
         <v>3334464</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>373</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6199,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6199,7 +6223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58884D2D-46EE-47E2-AABC-66447A883C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7BE065-AE1B-4D1F-A84C-90491EC4E363}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6216,7 +6240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6323,13 +6347,13 @@
         <v>8035</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6338,13 +6362,13 @@
         <v>8891</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -6353,13 +6377,13 @@
         <v>16926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6398,13 @@
         <v>121352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H5" s="7">
         <v>211</v>
@@ -6389,13 +6413,13 @@
         <v>113546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -6404,13 +6428,13 @@
         <v>234897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>392</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6449,13 @@
         <v>130911</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H6" s="7">
         <v>309</v>
@@ -6440,13 +6464,13 @@
         <v>148966</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M6" s="7">
         <v>487</v>
@@ -6455,13 +6479,13 @@
         <v>279877</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6553,13 @@
         <v>4062</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -6544,13 +6568,13 @@
         <v>49283</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -6559,13 +6583,13 @@
         <v>53344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6604,13 @@
         <v>246900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H9" s="7">
         <v>276</v>
@@ -6595,13 +6619,13 @@
         <v>222830</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M9" s="7">
         <v>458</v>
@@ -6610,13 +6634,13 @@
         <v>469731</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6655,13 @@
         <v>268335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
         <v>371</v>
@@ -6646,13 +6670,13 @@
         <v>282453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>568</v>
@@ -6661,13 +6685,13 @@
         <v>550789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6759,13 @@
         <v>8416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>296</v>
+        <v>431</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -6750,13 +6774,13 @@
         <v>15767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -6765,13 +6789,13 @@
         <v>24183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6810,13 @@
         <v>147192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
@@ -6801,13 +6825,13 @@
         <v>139781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M13" s="7">
         <v>343</v>
@@ -6816,13 +6840,13 @@
         <v>286973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6861,13 @@
         <v>166632</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>446</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -6852,13 +6876,13 @@
         <v>217736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>524</v>
@@ -6867,13 +6891,13 @@
         <v>384368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6965,13 @@
         <v>8010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -6956,13 +6980,13 @@
         <v>33705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -6971,13 +6995,13 @@
         <v>41715</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +7016,13 @@
         <v>169231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>233</v>
@@ -7007,13 +7031,13 @@
         <v>167358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -7022,13 +7046,13 @@
         <v>336589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7067,13 @@
         <v>144999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>474</v>
       </c>
       <c r="H18" s="7">
         <v>314</v>
@@ -7058,13 +7082,13 @@
         <v>227493</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="M18" s="7">
         <v>441</v>
@@ -7073,13 +7097,13 @@
         <v>372492</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>471</v>
+        <v>24</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7159,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7147,13 +7171,13 @@
         <v>15176</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -7162,13 +7186,13 @@
         <v>46648</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>377</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -7177,13 +7201,13 @@
         <v>61825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7222,13 @@
         <v>83125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H21" s="7">
         <v>168</v>
@@ -7213,13 +7237,13 @@
         <v>81177</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M21" s="7">
         <v>284</v>
@@ -7228,13 +7252,13 @@
         <v>164302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7273,13 @@
         <v>98447</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>499</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -7264,13 +7288,13 @@
         <v>131687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -7279,13 +7303,13 @@
         <v>230133</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,7 +7365,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7353,13 +7377,13 @@
         <v>4006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>15</v>
+        <v>507</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -7368,13 +7392,13 @@
         <v>11089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7383,13 +7407,13 @@
         <v>15096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7428,13 @@
         <v>115698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -7419,13 +7443,13 @@
         <v>112474</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>327</v>
@@ -7434,13 +7458,13 @@
         <v>228172</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7479,13 @@
         <v>157519</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H26" s="7">
         <v>264</v>
@@ -7470,13 +7494,13 @@
         <v>152059</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>481</v>
@@ -7485,13 +7509,13 @@
         <v>309578</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7547,7 +7571,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7559,13 +7583,13 @@
         <v>17950</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -7574,13 +7598,13 @@
         <v>43672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>383</v>
+        <v>535</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -7589,13 +7613,13 @@
         <v>61622</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,13 +7634,13 @@
         <v>333504</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="H29" s="7">
         <v>469</v>
@@ -7625,13 +7649,13 @@
         <v>447801</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M29" s="7">
         <v>788</v>
@@ -7640,13 +7664,13 @@
         <v>781305</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>541</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7685,13 @@
         <v>276300</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>544</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>431</v>
@@ -7676,13 +7700,13 @@
         <v>312730</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="M30" s="7">
         <v>693</v>
@@ -7691,13 +7715,13 @@
         <v>589030</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>553</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,7 +7777,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7765,13 +7789,13 @@
         <v>13020</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>401</v>
+        <v>557</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="H32" s="7">
         <v>51</v>
@@ -7780,13 +7804,13 @@
         <v>42745</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -7795,13 +7819,13 @@
         <v>55765</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,13 +7840,13 @@
         <v>457783</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="H33" s="7">
         <v>446</v>
@@ -7831,13 +7855,13 @@
         <v>372105</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>245</v>
+        <v>568</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>119</v>
+        <v>570</v>
       </c>
       <c r="M33" s="7">
         <v>828</v>
@@ -7846,13 +7870,13 @@
         <v>829889</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,13 +7891,13 @@
         <v>388624</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>564</v>
+        <v>342</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="H34" s="7">
         <v>565</v>
@@ -7882,13 +7906,13 @@
         <v>453584</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="M34" s="7">
         <v>932</v>
@@ -7897,13 +7921,13 @@
         <v>842208</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,13 +7995,13 @@
         <v>78675</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H36" s="7">
         <v>332</v>
@@ -7986,13 +8010,13 @@
         <v>251801</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>452</v>
+        <v>585</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M36" s="7">
         <v>413</v>
@@ -8001,13 +8025,13 @@
         <v>330476</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>475</v>
+        <v>587</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8022,13 +8046,13 @@
         <v>1674786</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="H37" s="7">
         <v>2169</v>
@@ -8037,28 +8061,28 @@
         <v>1657072</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="M37" s="7">
         <v>3776</v>
       </c>
       <c r="N37" s="7">
-        <v>3331858</v>
+        <v>3331857</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,13 +8097,13 @@
         <v>1631768</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>589</v>
+        <v>96</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>590</v>
+        <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H38" s="7">
         <v>2866</v>
@@ -8088,28 +8112,28 @@
         <v>1926708</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="M38" s="7">
         <v>4554</v>
       </c>
       <c r="N38" s="7">
-        <v>3558476</v>
+        <v>3558475</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,7 +8175,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -8165,7 +8189,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_Hogar_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5882C93-4D00-4AF0-B2AD-41A1A6866C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C4EC9A-B5E0-4130-82BB-22895B973A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D90BA7F-8EF9-4244-9A5E-89AA58D56834}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0BA1026B-A6EE-401E-B53E-DA9DA9065497}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="609">
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2012 (Tasa respuesta: 79,71%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>0%</t>
@@ -103,1738 +103,1747 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>44,66%</t>
   </si>
   <si>
-    <t>39,57%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2016 (Tasa respuesta: 80,51%)</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2015 (Tasa respuesta: 80,51%)</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>45,42%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
   </si>
   <si>
     <t>50,37%</t>
@@ -2267,7 +2276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE40CFE-4777-42F3-8D18-8E656656CB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FDFB1C-DF3E-45E9-95CD-CBCA9F72A106}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3042,7 +3051,7 @@
         <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -3051,13 +3060,13 @@
         <v>221797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>458</v>
@@ -3066,13 +3075,13 @@
         <v>501937</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3096,13 @@
         <v>351040</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>300</v>
@@ -3102,13 +3111,13 @@
         <v>322916</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>633</v>
@@ -3117,13 +3126,13 @@
         <v>673956</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,7 +3188,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3197,7 +3206,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3212,7 +3221,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3227,7 +3236,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3251,13 @@
         <v>85819</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -3257,13 +3266,13 @@
         <v>47526</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -3272,13 +3281,13 @@
         <v>133345</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3302,13 @@
         <v>109556</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -3308,13 +3317,13 @@
         <v>99254</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -3323,10 +3332,10 @@
         <v>208810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>103</v>
@@ -3866,7 +3875,7 @@
         <v>152</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="H33" s="7">
         <v>181</v>
@@ -3914,7 +3923,7 @@
         <v>158</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>159</v>
@@ -4051,7 +4060,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4075,13 @@
         <v>1485422</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H37" s="7">
         <v>832</v>
@@ -4081,13 +4090,13 @@
         <v>912595</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M37" s="7">
         <v>2202</v>
@@ -4096,13 +4105,13 @@
         <v>2398017</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4126,13 @@
         <v>1669605</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H38" s="7">
         <v>1414</v>
@@ -4132,13 +4141,13 @@
         <v>1528179</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M38" s="7">
         <v>2984</v>
@@ -4147,13 +4156,13 @@
         <v>3197785</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,7 +4218,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23C41EA-F1F3-4006-97C8-C063B2B55AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654A1DDD-E14F-4B68-8787-FCF028208007}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4250,7 +4259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4363,7 +4372,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4378,7 +4387,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4393,7 +4402,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4417,13 @@
         <v>105121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>66</v>
@@ -4423,13 +4432,13 @@
         <v>71079</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -4438,13 +4447,13 @@
         <v>176200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4468,13 @@
         <v>169008</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>158</v>
@@ -4474,13 +4483,13 @@
         <v>162577</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>314</v>
@@ -4489,13 +4498,13 @@
         <v>331585</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4572,13 @@
         <v>1132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4584,7 +4593,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4593,13 +4602,13 @@
         <v>2085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4623,13 @@
         <v>170596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -4629,13 +4638,13 @@
         <v>90672</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M9" s="7">
         <v>250</v>
@@ -4644,13 +4653,13 @@
         <v>261268</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4674,13 @@
         <v>280391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -4680,13 +4689,13 @@
         <v>186480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>440</v>
@@ -4695,13 +4704,13 @@
         <v>466871</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,7 +4784,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4790,7 +4799,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4820,13 +4829,13 @@
         <v>120309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4835,13 +4844,13 @@
         <v>89473</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -4850,13 +4859,13 @@
         <v>209782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4880,13 @@
         <v>172339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -4886,13 +4895,13 @@
         <v>162214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>344</v>
@@ -4901,13 +4910,13 @@
         <v>334553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,7 +4990,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4996,7 +5005,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5026,13 +5035,13 @@
         <v>139080</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -5041,13 +5050,13 @@
         <v>86022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -5056,13 +5065,13 @@
         <v>225102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5086,13 @@
         <v>189607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H18" s="7">
         <v>179</v>
@@ -5092,13 +5101,13 @@
         <v>189215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M18" s="7">
         <v>362</v>
@@ -5107,13 +5116,13 @@
         <v>378823</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,7 +5178,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5187,7 +5196,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5202,7 +5211,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5217,7 +5226,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5241,13 @@
         <v>77603</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -5247,13 +5256,13 @@
         <v>40019</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M21" s="7">
         <v>118</v>
@@ -5262,13 +5271,13 @@
         <v>117622</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5292,13 @@
         <v>121672</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -5298,13 +5307,13 @@
         <v>124044</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>251</v>
@@ -5313,13 +5322,13 @@
         <v>245716</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,7 +5402,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5408,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5423,7 +5432,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5447,13 @@
         <v>96787</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -5453,13 +5462,13 @@
         <v>47155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -5468,13 +5477,13 @@
         <v>143942</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5498,13 @@
         <v>139012</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>108</v>
@@ -5504,13 +5513,13 @@
         <v>109774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>246</v>
@@ -5519,13 +5528,13 @@
         <v>248786</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,7 +5608,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5614,7 +5623,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -5623,13 +5632,13 @@
         <v>1125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5653,13 @@
         <v>271047</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>203</v>
@@ -5659,13 +5668,13 @@
         <v>214470</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>436</v>
@@ -5674,13 +5683,13 @@
         <v>485518</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5704,13 @@
         <v>325887</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H30" s="7">
         <v>258</v>
@@ -5710,13 +5719,13 @@
         <v>277136</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M30" s="7">
         <v>553</v>
@@ -5725,13 +5734,13 @@
         <v>603022</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +5814,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5820,7 +5829,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5835,7 +5844,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5859,13 @@
         <v>347690</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H33" s="7">
         <v>227</v>
@@ -5865,13 +5874,13 @@
         <v>246560</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M33" s="7">
         <v>562</v>
@@ -5880,13 +5889,13 @@
         <v>594250</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5910,13 @@
         <v>372429</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H34" s="7">
         <v>328</v>
@@ -5916,13 +5925,13 @@
         <v>352680</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M34" s="7">
         <v>687</v>
@@ -5931,13 +5940,13 @@
         <v>725109</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6014,13 @@
         <v>2257</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6026,7 +6035,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>356</v>
+        <v>169</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6038,10 +6047,10 @@
         <v>165</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>358</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6065,13 @@
         <v>1328233</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H37" s="7">
         <v>837</v>
@@ -6071,13 +6080,13 @@
         <v>885451</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M37" s="7">
         <v>2089</v>
@@ -6086,13 +6095,13 @@
         <v>2213684</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6116,13 @@
         <v>1770344</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H38" s="7">
         <v>1497</v>
@@ -6122,13 +6131,13 @@
         <v>1564120</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M38" s="7">
         <v>3197</v>
@@ -6137,13 +6146,13 @@
         <v>3334464</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6208,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6223,7 +6232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7BE065-AE1B-4D1F-A84C-90491EC4E363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886E4148-150F-49EB-96CC-E6DE4B83A1A2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6240,7 +6249,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6347,13 +6356,13 @@
         <v>8035</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -6362,13 +6371,13 @@
         <v>8891</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -6377,13 +6386,13 @@
         <v>16926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +6407,13 @@
         <v>121352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>211</v>
@@ -6413,13 +6422,13 @@
         <v>113546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>390</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>357</v>
@@ -6428,13 +6437,13 @@
         <v>234897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6458,13 @@
         <v>130911</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H6" s="7">
         <v>309</v>
@@ -6464,7 +6473,7 @@
         <v>148966</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>38</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>399</v>
@@ -6655,13 +6664,13 @@
         <v>268335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>371</v>
@@ -6670,13 +6679,13 @@
         <v>282453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M10" s="7">
         <v>568</v>
@@ -6685,13 +6694,13 @@
         <v>550789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6768,13 @@
         <v>8416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -6774,13 +6783,13 @@
         <v>15767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -6789,13 +6798,13 @@
         <v>24183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6819,13 @@
         <v>147192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
@@ -6825,13 +6834,13 @@
         <v>139781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M13" s="7">
         <v>343</v>
@@ -6840,13 +6849,13 @@
         <v>286973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,13 +6870,13 @@
         <v>166632</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -6876,13 +6885,13 @@
         <v>217736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M14" s="7">
         <v>524</v>
@@ -6891,13 +6900,13 @@
         <v>384368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6974,13 @@
         <v>8010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -6980,13 +6989,13 @@
         <v>33705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -6995,13 +7004,13 @@
         <v>41715</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +7025,13 @@
         <v>169231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7">
         <v>233</v>
@@ -7031,13 +7040,13 @@
         <v>167358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -7046,13 +7055,13 @@
         <v>336589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7076,13 @@
         <v>144999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H18" s="7">
         <v>314</v>
@@ -7082,13 +7091,13 @@
         <v>227493</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M18" s="7">
         <v>441</v>
@@ -7097,13 +7106,13 @@
         <v>372492</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>479</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7168,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7171,13 +7180,13 @@
         <v>15176</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -7186,13 +7195,13 @@
         <v>46648</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -7201,13 +7210,13 @@
         <v>61825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7231,13 @@
         <v>83125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H21" s="7">
         <v>168</v>
@@ -7237,13 +7246,13 @@
         <v>81177</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>494</v>
+        <v>29</v>
       </c>
       <c r="M21" s="7">
         <v>284</v>
@@ -7252,13 +7261,13 @@
         <v>164302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7282,13 @@
         <v>98447</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -7288,13 +7297,13 @@
         <v>131687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -7303,13 +7312,13 @@
         <v>230133</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,7 +7386,7 @@
         <v>4006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>506</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>507</v>
@@ -7392,7 +7401,7 @@
         <v>11089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>509</v>
@@ -7649,7 +7658,7 @@
         <v>447801</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>544</v>
@@ -7670,7 +7679,7 @@
         <v>547</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7694,13 @@
         <v>276300</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>551</v>
       </c>
       <c r="H30" s="7">
         <v>431</v>
@@ -7700,13 +7709,13 @@
         <v>312730</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M30" s="7">
         <v>693</v>
@@ -7715,13 +7724,13 @@
         <v>589030</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7798,13 @@
         <v>13020</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H32" s="7">
         <v>51</v>
@@ -7804,13 +7813,13 @@
         <v>42745</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -7819,13 +7828,13 @@
         <v>55765</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7849,13 @@
         <v>457783</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H33" s="7">
         <v>446</v>
@@ -7855,13 +7864,13 @@
         <v>372105</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M33" s="7">
         <v>828</v>
@@ -7870,13 +7879,13 @@
         <v>829889</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7900,13 @@
         <v>388624</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H34" s="7">
         <v>565</v>
@@ -7906,13 +7915,13 @@
         <v>453584</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M34" s="7">
         <v>932</v>
@@ -7921,13 +7930,13 @@
         <v>842208</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +8004,13 @@
         <v>78675</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H36" s="7">
         <v>332</v>
@@ -8010,13 +8019,13 @@
         <v>251801</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M36" s="7">
         <v>413</v>
@@ -8025,13 +8034,13 @@
         <v>330476</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8055,13 @@
         <v>1674786</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H37" s="7">
         <v>2169</v>
@@ -8061,13 +8070,13 @@
         <v>1657072</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M37" s="7">
         <v>3776</v>
@@ -8076,13 +8085,13 @@
         <v>3331857</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8106,13 @@
         <v>1631768</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>96</v>
+        <v>551</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>193</v>
+        <v>601</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H38" s="7">
         <v>2866</v>
@@ -8112,13 +8121,13 @@
         <v>1926708</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M38" s="7">
         <v>4554</v>
@@ -8127,13 +8136,13 @@
         <v>3558475</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,7 +8198,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
